--- a/CW_MSExcel/Book1.xlsx
+++ b/CW_MSExcel/Book1.xlsx
@@ -1,55 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sepand\Documents\GitHub\computerworkshop\CW_MSExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7193A484-391B-4F64-9632-CB1A3CC01E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778399F2-CE42-4CFA-8795-44C0994A8F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="2" activeTab="10" xr2:uid="{52906A5A-8D9E-4596-AD27-114F734658DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{52906A5A-8D9E-4596-AD27-114F734658DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="auto fill" sheetId="1" r:id="rId1"/>
-    <sheet name="flash fill" sheetId="6" r:id="rId2"/>
-    <sheet name="تاریخ شمسی" sheetId="4" r:id="rId3"/>
-    <sheet name="formula" sheetId="9" r:id="rId4"/>
-    <sheet name="simple operator" sheetId="2" r:id="rId5"/>
-    <sheet name="condition" sheetId="3" r:id="rId6"/>
-    <sheet name="Pivot Table" sheetId="5" r:id="rId7"/>
-    <sheet name="فارسی" sheetId="8" r:id="rId8"/>
-    <sheet name="some easy analysis" sheetId="7" r:id="rId9"/>
-    <sheet name="filter" sheetId="10" r:id="rId10"/>
-    <sheet name="2dPixelArt" sheetId="11" r:id="rId11"/>
+    <sheet name="statistics" sheetId="13" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId2"/>
+    <sheet name="auto fill" sheetId="1" r:id="rId3"/>
+    <sheet name="flash fill" sheetId="6" r:id="rId4"/>
+    <sheet name="تاریخ شمسی" sheetId="4" r:id="rId5"/>
+    <sheet name="formula" sheetId="9" r:id="rId6"/>
+    <sheet name="simple operator" sheetId="2" r:id="rId7"/>
+    <sheet name="condition" sheetId="3" r:id="rId8"/>
+    <sheet name="Pivot Table" sheetId="5" r:id="rId9"/>
+    <sheet name="فارسی" sheetId="8" r:id="rId10"/>
+    <sheet name="some easy analysis" sheetId="7" r:id="rId11"/>
+    <sheet name="filter" sheetId="10" r:id="rId12"/>
+    <sheet name="2dPixelArt" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId12"/>
-    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="6" r:id="rId14"/>
+    <pivotCache cacheId="12" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="277">
   <si>
     <t>Days of the week</t>
   </si>
@@ -823,6 +815,153 @@
   </si>
   <si>
     <t>7456 Cedar Ave.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>babak</t>
+  </si>
+  <si>
+    <t>saeeidi</t>
+  </si>
+  <si>
+    <t>https://globalexcelsummit.com/post/how-people-use-excel-in-the-real-world</t>
+  </si>
+  <si>
+    <r>
+      <t>میانگین استفاده روزانه از اکسل</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="__vazir_46c312"/>
+      </rPr>
+      <t>: 37% از کار روزانه افراد با Excel انجام می‌شود.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>افراد حرفه‌ای که بیش از 80% زمان خود را با Excel کار می‌کنند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="__vazir_46c312"/>
+      </rPr>
+      <t>: 1 نفر از هر 25 حرفه‌ای.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>افرادی که حداقل یک‌بار در هر ساعت به صفحه‌گسترده‌های Excel نگاه می‌کنند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="__vazir_46c312"/>
+      </rPr>
+      <t>: 66% از حرفه‌ای‌ها.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>افرادی که حداقل 11 بار در هر ساعت به Excel نگاه می‌کنند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="__vazir_46c312"/>
+      </rPr>
+      <t>: 8% از حرفه‌ای‌ها.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>افرادی که بیش از 21 بار در هر ساعت به Excel نگاه می‌کنند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="__vazir_46c312"/>
+      </rPr>
+      <t>: 3% از حرفه‌ای‌ها.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>افرادی که هرگز به Excel نگاه نمی‌کنند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="__vazir_46c312"/>
+      </rPr>
+      <t>: 4% از حرفه‌ای‌ها.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>افرادی که فقط یک یا دو بار در روز به Excel نگاه می‌کنند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="__vazir_46c312"/>
+      </rPr>
+      <t>: 30% از حرفه‌ای‌ها.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>افرادی که دو صفحه‌گسترده Excel همزمان روی کامپیوتر باز دارند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="__vazir_46c312"/>
+      </rPr>
+      <t>: بیش از 60% از افراد.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>افرادی که همیشه حداقل دو صفحه‌گسترده Excel باز دارند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="__vazir_46c312"/>
+      </rPr>
+      <t>: بیش از 80% از حرفه‌ای‌ها.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>افرادی که بیش از 5 صفحه‌گسترده همزمان باز دارند</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="__vazir_46c312"/>
+      </rPr>
+      <t>: 5% از حرفه‌ای‌ها.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://vrgl.ir/XgDoc</t>
+  </si>
+  <si>
+    <t>October 3, 2022 | ctober 3rd 2022 was 2 years, 0 months and 7 days ago, which is 738 days.</t>
+  </si>
+  <si>
+    <t>https://howlongagogo.com/date/2022/october/3</t>
   </si>
 </sst>
 </file>
@@ -835,7 +974,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$-160429]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,8 +1040,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="__vazir_46c312"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="__vazir_46c312"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1020,6 +1174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1327,7 +1487,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1338,14 +1497,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1408,6 +1563,15 @@
     <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1426,20 +1590,98 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="117">
+  <dxfs count="127">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1586,23 +1828,202 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="[$-160429]dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1804,205 +2225,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[$-160429]dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -2553,26 +2775,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4999,48 +5201,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lenovo" refreshedDate="45398.05220648148" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{696D8869-ECE1-4553-A38C-C62F6BFF778D}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="SalesTable6"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Year" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2020" maxValue="2021" count="2">
-        <n v="2020"/>
-        <n v="2021"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Quarter" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="4"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Month" numFmtId="166">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Bath Products"/>
-        <s v="Oliver Oil"/>
-        <s v="Gift Basket"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Sales" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="100" maxValue="3705.5"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lenovo" refreshedDate="45398.057708101849" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{075ADC03-8FFD-47FA-A066-6EC6ED290468}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="sepand" refreshedDate="45574.934891898149" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{075ADC03-8FFD-47FA-A066-6EC6ED290468}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table6"/>
   </cacheSource>
@@ -5063,12 +5224,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="نمره" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="20" count="4">
-        <n v="20"/>
-        <n v="15"/>
-        <n v="17"/>
-        <n v="18"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="20"/>
     </cacheField>
     <cacheField name="ترم" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
@@ -5086,7 +5242,102 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="sepand" refreshedDate="45574.934892476849" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{696D8869-ECE1-4553-A38C-C62F6BFF778D}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="SalesTable6"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2020" maxValue="2021" count="2">
+        <n v="2020"/>
+        <n v="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Quarter" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="166">
+      <sharedItems containsNonDate="0"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Bath Products"/>
+        <s v="Oliver Oil"/>
+        <s v="Gift Basket"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="100" maxValue="3705.5"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+  <r>
+    <x v="0"/>
+    <s v="لهراسبی"/>
+    <m/>
+    <n v="20"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="مهدوی"/>
+    <m/>
+    <n v="20"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="کازرونی"/>
+    <m/>
+    <n v="15"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="خوشچهره"/>
+    <m/>
+    <n v="20"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="میانیی"/>
+    <m/>
+    <n v="17"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="محسنی"/>
+    <m/>
+    <n v="20"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="یاوری"/>
+    <m/>
+    <n v="18"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
   <r>
     <x v="0"/>
@@ -5126,62 +5377,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
-  <r>
-    <x v="0"/>
-    <s v="لهراسبی"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="مهدوی"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="کازرونی"/>
-    <m/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="خوشچهره"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="میانیی"/>
-    <m/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="محسنی"/>
-    <m/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="یاوری"/>
-    <m/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3982EF9F-6D16-4023-A0B8-CC64C44D943F}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3982EF9F-6D16-4023-A0B8-CC64C44D943F}" name="PivotTable8" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A22:E30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -5258,6 +5455,66 @@
     <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="48">
+    <format dxfId="94">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="93">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="92">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="91">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="90">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="89">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="88">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="87">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="86">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="85">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="84">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
     <format dxfId="82">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
@@ -5438,66 +5695,6 @@
     <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="45">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="44">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="40">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="39">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleMedium18" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5512,7 +5709,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A26A5D83-CCB3-4AFD-98F4-3C970BC8562F}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A26A5D83-CCB3-4AFD-98F4-3C970BC8562F}" name="PivotTable9" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="H16:I27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -5529,15 +5726,7 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="0"/>
@@ -5616,7 +5805,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1F755B-1B7F-4CF5-9239-E9C889677AAA}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1F755B-1B7F-4CF5-9239-E9C889677AAA}" name="PivotTable13" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G16:J21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -5626,14 +5815,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -5680,7 +5862,7 @@
     <dataField name="Sum of Sales" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="8">
+    <format dxfId="22">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -5689,7 +5871,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="21">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -5700,7 +5882,7 @@
     </format>
   </formats>
   <conditionalFormats count="2">
-    <conditionalFormat type="all" priority="1">
+    <conditionalFormat type="all" priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -5708,7 +5890,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="1"/>
+              <x v="0"/>
             </reference>
             <reference field="3" count="3">
               <x v="0"/>
@@ -5719,7 +5901,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat type="all" priority="2">
+    <conditionalFormat type="all" priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -5727,7 +5909,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="1"/>
             </reference>
             <reference field="3" count="3">
               <x v="0"/>
@@ -5752,7 +5934,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98AEBB49-E6C1-4670-A365-297AD9BB7088}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98AEBB49-E6C1-4670-A365-297AD9BB7088}" name="PivotTable12" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G3:K11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -5841,7 +6023,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04564482-8FEE-43C8-99A1-DB1D881CF4FB}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04564482-8FEE-43C8-99A1-DB1D881CF4FB}" name="PivotTable7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -5935,45 +6117,72 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E02DAEE2-7DCB-49CC-9C5C-BE92FD2CA57A}" name="Name"/>
     <tableColumn id="2" xr3:uid="{FA60285B-1643-4C7C-B537-EB16FB0953FD}" name="Family"/>
-    <tableColumn id="3" xr3:uid="{C7B506DA-ED2D-4FC9-A405-10C8CEA5FBCC}" name="Command" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{C7B506DA-ED2D-4FC9-A405-10C8CEA5FBCC}" name="Command" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1E230579-6F39-4559-BE7D-4FA00F563826}" name="Table11" displayName="Table11" ref="A1:E33" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:E33" xr:uid="{1E230579-6F39-4559-BE7D-4FA00F563826}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9AEA99DC-1593-4BD4-BDBE-7740C7FEF51A}" name="Row" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{0B38D7DB-2142-44FF-902A-66F532D56507}" name="Address" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{C1BBE6E6-280D-4581-88B4-D8BFB412767B}" name="Square Footage" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{751E334D-454E-48C9-B1E2-14189617C144}" name="Bedrooms" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{D867D560-5FC8-48E5-894E-1C623A60B756}" name="Price" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7006CF23-6D7C-48B3-8B45-D6064C45B72E}" name="Table9" displayName="Table9" ref="B7:F16" totalsRowShown="0" headerRowDxfId="115" dataDxfId="113" headerRowBorderDxfId="114" tableBorderDxfId="112" totalsRowBorderDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{327FDB3F-5705-4D76-B059-AD9364BCBD36}" name="newTable" displayName="newTable" ref="B17:E19" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="B17:E19" xr:uid="{327FDB3F-5705-4D76-B059-AD9364BCBD36}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D2AFD9C2-834D-450B-AF64-5B1923BBA466}" name="name" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F7130A87-3D3D-48AB-9885-8127F0A12417}" name="fname" dataDxfId="10" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B647A260-517E-4682-A183-3587777F5F91}" name="age" dataDxfId="9" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{CBF2BEE5-4AE7-4BE5-AD71-0FB3B326B371}" name="score" dataDxfId="8" totalsRowDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7006CF23-6D7C-48B3-8B45-D6064C45B72E}" name="Table9" displayName="Table9" ref="B7:F16" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122" totalsRowBorderDxfId="121">
   <autoFilter ref="B7:F16" xr:uid="{7006CF23-6D7C-48B3-8B45-D6064C45B72E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3CFD2082-4CF1-446B-8BE2-F082C9C80C6E}" name="Column1" dataDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{9886A329-B735-47F9-955E-5ECA9DC343BB}" name="a" dataDxfId="109"/>
-    <tableColumn id="3" xr3:uid="{68EF6A25-17F5-43C9-B799-1C836D3FBD9A}" name="b" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{1682783A-113E-41DC-9945-B8AD72560258}" name="v" dataDxfId="107"/>
-    <tableColumn id="5" xr3:uid="{98BFC7CF-F5D2-41A1-BA38-29D7EBE768D4}" name="d" dataDxfId="106"/>
+    <tableColumn id="1" xr3:uid="{3CFD2082-4CF1-446B-8BE2-F082C9C80C6E}" name="Column1" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{9886A329-B735-47F9-955E-5ECA9DC343BB}" name="a" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{68EF6A25-17F5-43C9-B799-1C836D3FBD9A}" name="b" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{1682783A-113E-41DC-9945-B8AD72560258}" name="v" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{98BFC7CF-F5D2-41A1-BA38-29D7EBE768D4}" name="d" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{55712DDB-F083-4631-B5B4-DEAE0F2683C3}" name="Table10" displayName="Table10" ref="I9:K12" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{55712DDB-F083-4631-B5B4-DEAE0F2683C3}" name="Table10" displayName="Table10" ref="I9:K12" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
   <autoFilter ref="I9:K12" xr:uid="{55712DDB-F083-4631-B5B4-DEAE0F2683C3}"/>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{66D84B39-2B84-418E-9FFD-8954963F30FA}" name="index" dataDxfId="103"/>
-    <tableColumn id="1" xr3:uid="{F62D2BE7-F426-4DC0-B0D7-AF65116B2E07}" name="a" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{0BA2E46D-DB4A-4180-B99A-F228C2F7D4AE}" name="b" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{66D84B39-2B84-418E-9FFD-8954963F30FA}" name="index" dataDxfId="113"/>
+    <tableColumn id="1" xr3:uid="{F62D2BE7-F426-4DC0-B0D7-AF65116B2E07}" name="a" dataDxfId="112"/>
+    <tableColumn id="2" xr3:uid="{0BA2E46D-DB4A-4180-B99A-F228C2F7D4AE}" name="b" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{872C1A82-C292-46B2-8D49-6BC44ADD500D}" name="Table7" displayName="Table7" ref="M13:O17" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{872C1A82-C292-46B2-8D49-6BC44ADD500D}" name="Table7" displayName="Table7" ref="M13:O17" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <autoFilter ref="M13:O17" xr:uid="{872C1A82-C292-46B2-8D49-6BC44ADD500D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0C8D3807-16B0-436E-9F79-4183FE99E41F}" name="a" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{4404D5D5-27E0-4563-BBBE-53783522352C}" name="b" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{1BD00687-172E-4E72-AE13-14809C446321}" name="c" dataDxfId="96">
+    <tableColumn id="1" xr3:uid="{0C8D3807-16B0-436E-9F79-4183FE99E41F}" name="a" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{4404D5D5-27E0-4563-BBBE-53783522352C}" name="b" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{1BD00687-172E-4E72-AE13-14809C446321}" name="c" dataDxfId="106">
       <calculatedColumnFormula>_xlfn.XOR(M14,N14)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5981,18 +6190,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5EE6957-5135-400A-B35C-030E2C636C37}" name="ScoreTable" displayName="ScoreTable" ref="J16:O26" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90" totalsRowBorderDxfId="89">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5EE6957-5135-400A-B35C-030E2C636C37}" name="ScoreTable" displayName="ScoreTable" ref="J16:O26" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
   <autoFilter ref="J16:O26" xr:uid="{F5EE6957-5135-400A-B35C-030E2C636C37}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E532E91A-E33A-4E81-9A48-EEF5AB11EC7B}" name="Column1" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{0D62E2C8-A0B7-4775-BFBE-6B3F1E31EF79}" name="Chemistry" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{67EB20C9-5433-4C81-8F12-94DE5A5EE97B}" name="Physics" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{D6E7A653-0297-4D9C-BD15-3337A4591C4B}" name="Math" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{842D87BC-D7C9-4CAE-BB22-3AFB411FF356}" name="Sum" dataDxfId="84">
+    <tableColumn id="1" xr3:uid="{E532E91A-E33A-4E81-9A48-EEF5AB11EC7B}" name="Column1" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{0D62E2C8-A0B7-4775-BFBE-6B3F1E31EF79}" name="Chemistry" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{67EB20C9-5433-4C81-8F12-94DE5A5EE97B}" name="Physics" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{D6E7A653-0297-4D9C-BD15-3337A4591C4B}" name="Math" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{842D87BC-D7C9-4CAE-BB22-3AFB411FF356}" name="Sum" dataDxfId="96">
       <calculatedColumnFormula>SUM(K17:M17)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F459A362-E942-43C2-B36C-99D1C4BEDF3A}" name="Avg" dataDxfId="83">
+    <tableColumn id="6" xr3:uid="{F459A362-E942-43C2-B36C-99D1C4BEDF3A}" name="Avg" dataDxfId="95">
       <calculatedColumnFormula>N17/3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6000,35 +6209,35 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2D3B7AB0-43E6-4CE4-ACC5-D8F0607C3699}" name="SalesTable" displayName="SalesTable" ref="A1:E7" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="32">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2D3B7AB0-43E6-4CE4-ACC5-D8F0607C3699}" name="SalesTable" displayName="SalesTable" ref="A1:E7" totalsRowCount="1" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="44">
   <autoFilter ref="A1:E6" xr:uid="{2D3B7AB0-43E6-4CE4-ACC5-D8F0607C3699}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3482221E-1290-4B0B-A9A2-C2FAAB6914B0}" name="Year" totalsRowLabel="Total" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{3AFCCDF9-C0AD-4D58-A3BB-38000DE402A3}" name="Quarter" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{13C418C4-182D-4A44-89E8-D393BD04FC6D}" name="Month" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{F9A36E3C-6FBC-4AA8-8A66-DF0BB182EEAF}" name="Category" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{F00803E8-955E-4C7A-B52F-45A3A55F5DAB}" name="Sales" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7F973B04-96CC-4EAF-86BE-63711C15F685}" name="SalesTable6" displayName="SalesTable6" ref="A12:E18" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
-  <autoFilter ref="A12:E17" xr:uid="{7F973B04-96CC-4EAF-86BE-63711C15F685}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E7FF91FD-D9DB-4835-BFA9-67F5C0EF9FA0}" name="Year" totalsRowLabel="Total" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{163F7768-16EF-4686-B15A-5A0EF34203BD}" name="Quarter" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{419873EB-0182-4D8D-958A-2708E5880FD1}" name="Month" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{78A1DBA5-11D0-4FCD-BD11-0B68FE1048D6}" name="Category" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{367B2CB3-A90F-49F7-8D3D-E2A10E3E6D9E}" name="Sales" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{3482221E-1290-4B0B-A9A2-C2FAAB6914B0}" name="Year" totalsRowLabel="Total" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{3AFCCDF9-C0AD-4D58-A3BB-38000DE402A3}" name="Quarter" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{13C418C4-182D-4A44-89E8-D393BD04FC6D}" name="Month" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{F9A36E3C-6FBC-4AA8-8A66-DF0BB182EEAF}" name="Category" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{F00803E8-955E-4C7A-B52F-45A3A55F5DAB}" name="Sales" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7F973B04-96CC-4EAF-86BE-63711C15F685}" name="SalesTable6" displayName="SalesTable6" ref="A12:E18" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="32">
+  <autoFilter ref="A12:E17" xr:uid="{7F973B04-96CC-4EAF-86BE-63711C15F685}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E7FF91FD-D9DB-4835-BFA9-67F5C0EF9FA0}" name="Year" totalsRowLabel="Total" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{163F7768-16EF-4686-B15A-5A0EF34203BD}" name="Quarter" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{419873EB-0182-4D8D-958A-2708E5880FD1}" name="Month" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{78A1DBA5-11D0-4FCD-BD11-0B68FE1048D6}" name="Category" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{367B2CB3-A90F-49F7-8D3D-E2A10E3E6D9E}" name="Sales" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{34DD3823-CC27-4330-BE69-73A15AA13269}" name="Table6" displayName="Table6" ref="D4:H12" totalsRowCount="1">
   <autoFilter ref="D4:H11" xr:uid="{34DD3823-CC27-4330-BE69-73A15AA13269}"/>
   <tableColumns count="5">
@@ -6037,20 +6246,6 @@
     <tableColumn id="3" xr3:uid="{6C0353F1-4C6A-4185-9C5B-CDCC6FBF9551}" name="شماره دانشجویی"/>
     <tableColumn id="4" xr3:uid="{8CD8BD1D-0BA6-4A66-B58A-69F4F1E679B9}" name="نمره"/>
     <tableColumn id="5" xr3:uid="{080F813C-ABBE-42FB-AA75-D45DF154CDEB}" name="ترم" totalsRowFunction="count"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1E230579-6F39-4559-BE7D-4FA00F563826}" name="Table11" displayName="Table11" ref="A1:E33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E33" xr:uid="{1E230579-6F39-4559-BE7D-4FA00F563826}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9AEA99DC-1593-4BD4-BDBE-7740C7FEF51A}" name="Row" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0B38D7DB-2142-44FF-902A-66F532D56507}" name="Address" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C1BBE6E6-280D-4581-88B4-D8BFB412767B}" name="Square Footage" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{751E334D-454E-48C9-B1E2-14189617C144}" name="Bedrooms" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D867D560-5FC8-48E5-894E-1C623A60B756}" name="Price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6352,6 +6547,1499 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1270645B-D09D-438F-92C4-0E013F1AF245}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="81.85546875" style="89" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75">
+      <c r="A1" s="91" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75">
+      <c r="A2" s="91" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75">
+      <c r="A3" s="92" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75">
+      <c r="A4" s="91" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75">
+      <c r="A5" s="91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75">
+      <c r="A6" s="91" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75">
+      <c r="A7" s="93" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75">
+      <c r="A8" s="92" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75">
+      <c r="A9" s="92" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75">
+      <c r="A10" s="91" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="90" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="89" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="89" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53E181B-4D6C-4D78-975E-AD00CC2A0AB6}">
+  <dimension ref="B2:M27"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="21">
+      <c r="B2" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="D4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="D8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12">
+        <f>SUBTOTAL(103,Table6[ترم])</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="H16" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" t="s">
+        <v>191</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" s="48">
+        <v>1</v>
+      </c>
+      <c r="I17" s="87">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="H20" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="H21" s="48">
+        <v>2</v>
+      </c>
+      <c r="I21" s="87">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9">
+      <c r="H22" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9">
+      <c r="H23" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="87">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9">
+      <c r="H24" s="48">
+        <v>3</v>
+      </c>
+      <c r="I24" s="87">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9">
+      <c r="H25" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9">
+      <c r="H26" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" s="87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9">
+      <c r="H27" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="87">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B125A6C-07A9-4059-BF4E-65D7246C5927}">
+  <dimension ref="A3:K21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11">
+      <c r="A3" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="44">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="87">
+        <v>1189.3899999999999</v>
+      </c>
+      <c r="C5" s="87">
+        <v>3705.5</v>
+      </c>
+      <c r="D5" s="87">
+        <v>100</v>
+      </c>
+      <c r="E5" s="87">
+        <v>4994.8899999999994</v>
+      </c>
+      <c r="G5" s="44">
+        <v>2020</v>
+      </c>
+      <c r="H5" s="87">
+        <v>2</v>
+      </c>
+      <c r="I5" s="87">
+        <v>1</v>
+      </c>
+      <c r="J5" s="87">
+        <v>1</v>
+      </c>
+      <c r="K5" s="87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="45">
+        <v>1</v>
+      </c>
+      <c r="B6" s="87">
+        <v>939.39</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87">
+        <v>100</v>
+      </c>
+      <c r="E6" s="87">
+        <v>1039.3899999999999</v>
+      </c>
+      <c r="G6" s="45">
+        <v>1</v>
+      </c>
+      <c r="H6" s="87">
+        <v>1</v>
+      </c>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87">
+        <v>1</v>
+      </c>
+      <c r="K6" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="45">
+        <v>2</v>
+      </c>
+      <c r="B7" s="87">
+        <v>250</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87">
+        <v>250</v>
+      </c>
+      <c r="G7" s="45">
+        <v>2</v>
+      </c>
+      <c r="H7" s="87">
+        <v>1</v>
+      </c>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="45">
+        <v>4</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87">
+        <v>3705.5</v>
+      </c>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87">
+        <v>3705.5</v>
+      </c>
+      <c r="G8" s="45">
+        <v>4</v>
+      </c>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87">
+        <v>1</v>
+      </c>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="44">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87">
+        <v>456</v>
+      </c>
+      <c r="E9" s="87">
+        <v>456</v>
+      </c>
+      <c r="G9" s="44">
+        <v>2021</v>
+      </c>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87">
+        <v>1</v>
+      </c>
+      <c r="K9" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="45">
+        <v>4</v>
+      </c>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87">
+        <v>456</v>
+      </c>
+      <c r="E10" s="87">
+        <v>456</v>
+      </c>
+      <c r="G10" s="45">
+        <v>4</v>
+      </c>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87">
+        <v>1</v>
+      </c>
+      <c r="K10" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="87">
+        <v>1189.3899999999999</v>
+      </c>
+      <c r="C11" s="87">
+        <v>3705.5</v>
+      </c>
+      <c r="D11" s="87">
+        <v>556</v>
+      </c>
+      <c r="E11" s="87">
+        <v>5450.8899999999994</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="87">
+        <v>2</v>
+      </c>
+      <c r="I11" s="87">
+        <v>1</v>
+      </c>
+      <c r="J11" s="87">
+        <v>2</v>
+      </c>
+      <c r="K11" s="87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="G16" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17">
+        <v>2020</v>
+      </c>
+      <c r="I17">
+        <v>2021</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="67">
+        <v>0.2381213600299506</v>
+      </c>
+      <c r="I18" s="67">
+        <v>0</v>
+      </c>
+      <c r="J18" s="67">
+        <v>0.21820106441333434</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10">
+      <c r="G19" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="69">
+        <v>0.74185817905899842</v>
+      </c>
+      <c r="I19" s="69">
+        <v>0</v>
+      </c>
+      <c r="J19" s="69">
+        <v>0.67979724411976772</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10">
+      <c r="G20" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="69">
+        <v>2.0020460911051096E-2</v>
+      </c>
+      <c r="I20" s="69">
+        <v>1</v>
+      </c>
+      <c r="J20" s="69">
+        <v>0.10200169146689808</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10">
+      <c r="G21" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="67">
+        <v>1</v>
+      </c>
+      <c r="I21" s="67">
+        <v>1</v>
+      </c>
+      <c r="J21" s="67">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B16:D16"/>
+  </mergeCells>
+  <conditionalFormatting pivot="1" sqref="H18:H20">
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="I18:I20">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9ADC6C-8421-4F4E-867B-1C2E2FFB06F8}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="70">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="70">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="70">
+        <v>3</v>
+      </c>
+      <c r="E2" s="71">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="70">
+        <v>2</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="70">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="70">
+        <v>2</v>
+      </c>
+      <c r="E3" s="71">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="70">
+        <v>3</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="70">
+        <v>2200</v>
+      </c>
+      <c r="D4" s="70">
+        <v>4</v>
+      </c>
+      <c r="E4" s="71">
+        <v>625000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="70">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="70">
+        <v>1800</v>
+      </c>
+      <c r="D5" s="70">
+        <v>3</v>
+      </c>
+      <c r="E5" s="71">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="70">
+        <v>5</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="70">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="70">
+        <v>2</v>
+      </c>
+      <c r="E6" s="71">
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="70">
+        <v>6</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="70">
+        <v>2500</v>
+      </c>
+      <c r="D7" s="70">
+        <v>4</v>
+      </c>
+      <c r="E7" s="71">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="70">
+        <v>7</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="70">
+        <v>1600</v>
+      </c>
+      <c r="D8" s="70">
+        <v>3</v>
+      </c>
+      <c r="E8" s="71">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="70">
+        <v>8</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="70">
+        <v>2100</v>
+      </c>
+      <c r="D9" s="70">
+        <v>4</v>
+      </c>
+      <c r="E9" s="71">
+        <v>575000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="70">
+        <v>9</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="70">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="70">
+        <v>2</v>
+      </c>
+      <c r="E10" s="71">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="70">
+        <v>10</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="70">
+        <v>1900</v>
+      </c>
+      <c r="D11" s="70">
+        <v>3</v>
+      </c>
+      <c r="E11" s="71">
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="70">
+        <v>11</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="70">
+        <v>1700</v>
+      </c>
+      <c r="D12" s="70">
+        <v>3</v>
+      </c>
+      <c r="E12" s="71">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="70">
+        <v>12</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="70">
+        <v>2300</v>
+      </c>
+      <c r="D13" s="70">
+        <v>4</v>
+      </c>
+      <c r="E13" s="71">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="70">
+        <v>13</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="70">
+        <v>1400</v>
+      </c>
+      <c r="D14" s="70">
+        <v>2</v>
+      </c>
+      <c r="E14" s="71">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="70">
+        <v>14</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="70">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="70">
+        <v>3</v>
+      </c>
+      <c r="E15" s="71">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="70">
+        <v>15</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="70">
+        <v>1800</v>
+      </c>
+      <c r="D16" s="70">
+        <v>3</v>
+      </c>
+      <c r="E16" s="71">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="70">
+        <v>16</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="70">
+        <v>1500</v>
+      </c>
+      <c r="D17" s="70">
+        <v>2</v>
+      </c>
+      <c r="E17" s="71">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="70">
+        <v>17</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="70">
+        <v>2200</v>
+      </c>
+      <c r="D18" s="70">
+        <v>4</v>
+      </c>
+      <c r="E18" s="71">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="70">
+        <v>18</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="70">
+        <v>1900</v>
+      </c>
+      <c r="D19" s="70">
+        <v>3</v>
+      </c>
+      <c r="E19" s="71">
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="70">
+        <v>19</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="70">
+        <v>2400</v>
+      </c>
+      <c r="D20" s="70">
+        <v>4</v>
+      </c>
+      <c r="E20" s="71">
+        <v>675000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="70">
+        <v>20</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="70">
+        <v>1600</v>
+      </c>
+      <c r="D21" s="70">
+        <v>2</v>
+      </c>
+      <c r="E21" s="71">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="70">
+        <v>21</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="70">
+        <v>2100</v>
+      </c>
+      <c r="D22" s="70">
+        <v>3</v>
+      </c>
+      <c r="E22" s="71">
+        <v>525000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="70">
+        <v>22</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="70">
+        <v>1700</v>
+      </c>
+      <c r="D23" s="70">
+        <v>3</v>
+      </c>
+      <c r="E23" s="71">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="70">
+        <v>23</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="70">
+        <v>1400</v>
+      </c>
+      <c r="D24" s="70">
+        <v>2</v>
+      </c>
+      <c r="E24" s="71">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="70">
+        <v>24</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="70">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="70">
+        <v>3</v>
+      </c>
+      <c r="E25" s="71">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="70">
+        <v>25</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="70">
+        <v>1800</v>
+      </c>
+      <c r="D26" s="70">
+        <v>3</v>
+      </c>
+      <c r="E26" s="71">
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="70">
+        <v>26</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="70">
+        <v>2300</v>
+      </c>
+      <c r="D27" s="70">
+        <v>4</v>
+      </c>
+      <c r="E27" s="71">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="70">
+        <v>27</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="70">
+        <v>1500</v>
+      </c>
+      <c r="D28" s="70">
+        <v>2</v>
+      </c>
+      <c r="E28" s="71">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="70">
+        <v>28</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="70">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="70">
+        <v>3</v>
+      </c>
+      <c r="E29" s="71">
+        <v>525000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="70">
+        <v>29</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="70">
+        <v>1900</v>
+      </c>
+      <c r="D30" s="70">
+        <v>3</v>
+      </c>
+      <c r="E30" s="71">
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="70">
+        <v>30</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="70">
+        <v>1600</v>
+      </c>
+      <c r="D31" s="70">
+        <v>2</v>
+      </c>
+      <c r="E31" s="71">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB7BC9-4AF7-4B53-8885-AA755EF0C0A6}">
+  <dimension ref="D7:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:14">
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+    </row>
+    <row r="8" spans="4:14">
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+    </row>
+    <row r="9" spans="4:14">
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+    </row>
+    <row r="10" spans="4:14">
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+    </row>
+    <row r="11" spans="4:14">
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+    </row>
+    <row r="12" spans="4:14">
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+    </row>
+    <row r="13" spans="4:14">
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+    </row>
+    <row r="14" spans="4:14">
+      <c r="D14" s="72"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="72"/>
+    </row>
+    <row r="15" spans="4:14">
+      <c r="D15" s="72"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="72"/>
+    </row>
+    <row r="16" spans="4:14">
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+    </row>
+    <row r="17" spans="4:14">
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+    </row>
+    <row r="18" spans="4:14">
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+    </row>
+    <row r="19" spans="4:14">
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+    </row>
+    <row r="20" spans="4:14">
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA315D65-5D88-4AA8-80D0-978656DAF760}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E72A1D-E76F-4FAF-8D36-7471DE8CEC10}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -6362,12 +8050,12 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:14">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -6398,7 +8086,7 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:14">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6413,7 +8101,7 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:14">
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6428,7 +8116,7 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:14">
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6457,7 +8145,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:14">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6472,7 +8160,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:14">
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
         <v>30</v>
@@ -6503,7 +8191,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:14">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -6518,7 +8206,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:14">
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
@@ -6549,7 +8237,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:14">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -6564,7 +8252,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:14">
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -6593,7 +8281,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:14">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -6608,7 +8296,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:14">
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -6623,7 +8311,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:14">
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -6638,7 +8326,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:14">
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -6653,7 +8341,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:14">
       <c r="B17" s="13" t="s">
         <v>29</v>
       </c>
@@ -6670,7 +8358,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:14">
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -6685,7 +8373,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:14">
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -6700,7 +8388,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:14">
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -6729,7 +8417,7 @@
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:14">
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -6744,7 +8432,7 @@
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:14">
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -6773,7 +8461,7 @@
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:14">
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -6788,7 +8476,7 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:14">
       <c r="B24" s="15" t="s">
         <v>45</v>
       </c>
@@ -6805,7 +8493,7 @@
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:14">
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16" t="s">
@@ -6836,7 +8524,7 @@
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:14">
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -6851,7 +8539,7 @@
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:14">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
@@ -6882,7 +8570,7 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:14">
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -6897,7 +8585,7 @@
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:14">
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -6912,7 +8600,7 @@
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:14">
       <c r="B30" s="18" t="s">
         <v>72</v>
       </c>
@@ -6929,7 +8617,7 @@
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:14">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -6944,15 +8632,15 @@
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:14">
       <c r="B32" s="18"/>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
@@ -6961,7 +8649,7 @@
       <c r="M32" s="19"/>
       <c r="N32" s="19"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:14">
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -6976,7 +8664,7 @@
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:14">
       <c r="B34" s="18"/>
       <c r="C34" s="19" t="s">
         <v>74</v>
@@ -7011,7 +8699,7 @@
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:14">
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -7026,7 +8714,7 @@
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:14">
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -7041,7 +8729,7 @@
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:14">
       <c r="B37" s="18"/>
       <c r="C37" s="19" t="s">
         <v>81</v>
@@ -7076,7 +8764,7 @@
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:14">
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -7100,857 +8788,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9ADC6C-8421-4F4E-867B-1C2E2FFB06F8}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="10.89453125" customWidth="1"/>
-    <col min="2" max="2" width="23.578125" customWidth="1"/>
-    <col min="3" max="3" width="23.68359375" customWidth="1"/>
-    <col min="4" max="4" width="26.05078125" customWidth="1"/>
-    <col min="5" max="5" width="26.3125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="73">
-        <v>1</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="73">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="73">
-        <v>3</v>
-      </c>
-      <c r="E2" s="74">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="73">
-        <v>2</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="73">
-        <v>1500</v>
-      </c>
-      <c r="D3" s="73">
-        <v>2</v>
-      </c>
-      <c r="E3" s="74">
-        <v>375000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="73">
-        <v>3</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="73">
-        <v>2200</v>
-      </c>
-      <c r="D4" s="73">
-        <v>4</v>
-      </c>
-      <c r="E4" s="74">
-        <v>625000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="73">
-        <v>4</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="73">
-        <v>1800</v>
-      </c>
-      <c r="D5" s="73">
-        <v>3</v>
-      </c>
-      <c r="E5" s="74">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="73">
-        <v>5</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="73">
-        <v>1200</v>
-      </c>
-      <c r="D6" s="73">
-        <v>2</v>
-      </c>
-      <c r="E6" s="74">
-        <v>325000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="73">
-        <v>6</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="73">
-        <v>2500</v>
-      </c>
-      <c r="D7" s="73">
-        <v>4</v>
-      </c>
-      <c r="E7" s="74">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="73">
-        <v>7</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="73">
-        <v>1600</v>
-      </c>
-      <c r="D8" s="73">
-        <v>3</v>
-      </c>
-      <c r="E8" s="74">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="73">
-        <v>8</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="73">
-        <v>2100</v>
-      </c>
-      <c r="D9" s="73">
-        <v>4</v>
-      </c>
-      <c r="E9" s="74">
-        <v>575000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="73">
-        <v>9</v>
-      </c>
-      <c r="B10" s="73" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" s="73">
-        <v>1300</v>
-      </c>
-      <c r="D10" s="73">
-        <v>2</v>
-      </c>
-      <c r="E10" s="74">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="73">
-        <v>10</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="73">
-        <v>1900</v>
-      </c>
-      <c r="D11" s="73">
-        <v>3</v>
-      </c>
-      <c r="E11" s="74">
-        <v>475000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="73">
-        <v>11</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="73">
-        <v>1700</v>
-      </c>
-      <c r="D12" s="73">
-        <v>3</v>
-      </c>
-      <c r="E12" s="74">
-        <v>425000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="73">
-        <v>12</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13" s="73">
-        <v>2300</v>
-      </c>
-      <c r="D13" s="73">
-        <v>4</v>
-      </c>
-      <c r="E13" s="74">
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="73">
-        <v>13</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="73">
-        <v>1400</v>
-      </c>
-      <c r="D14" s="73">
-        <v>2</v>
-      </c>
-      <c r="E14" s="74">
-        <v>375000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="73">
-        <v>14</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" s="73">
-        <v>2000</v>
-      </c>
-      <c r="D15" s="73">
-        <v>3</v>
-      </c>
-      <c r="E15" s="74">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="73">
-        <v>15</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="73">
-        <v>1800</v>
-      </c>
-      <c r="D16" s="73">
-        <v>3</v>
-      </c>
-      <c r="E16" s="74">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="73">
-        <v>16</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="73">
-        <v>1500</v>
-      </c>
-      <c r="D17" s="73">
-        <v>2</v>
-      </c>
-      <c r="E17" s="74">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="73">
-        <v>17</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="73">
-        <v>2200</v>
-      </c>
-      <c r="D18" s="73">
-        <v>4</v>
-      </c>
-      <c r="E18" s="74">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="73">
-        <v>18</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="73">
-        <v>1900</v>
-      </c>
-      <c r="D19" s="73">
-        <v>3</v>
-      </c>
-      <c r="E19" s="74">
-        <v>475000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="73">
-        <v>19</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20" s="73">
-        <v>2400</v>
-      </c>
-      <c r="D20" s="73">
-        <v>4</v>
-      </c>
-      <c r="E20" s="74">
-        <v>675000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="73">
-        <v>20</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="73">
-        <v>1600</v>
-      </c>
-      <c r="D21" s="73">
-        <v>2</v>
-      </c>
-      <c r="E21" s="74">
-        <v>425000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="73">
-        <v>21</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>248</v>
-      </c>
-      <c r="C22" s="73">
-        <v>2100</v>
-      </c>
-      <c r="D22" s="73">
-        <v>3</v>
-      </c>
-      <c r="E22" s="74">
-        <v>525000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="73">
-        <v>22</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23" s="73">
-        <v>1700</v>
-      </c>
-      <c r="D23" s="73">
-        <v>3</v>
-      </c>
-      <c r="E23" s="74">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="73">
-        <v>23</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>250</v>
-      </c>
-      <c r="C24" s="73">
-        <v>1400</v>
-      </c>
-      <c r="D24" s="73">
-        <v>2</v>
-      </c>
-      <c r="E24" s="74">
-        <v>375000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="73">
-        <v>24</v>
-      </c>
-      <c r="B25" s="73" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" s="73">
-        <v>2000</v>
-      </c>
-      <c r="D25" s="73">
-        <v>3</v>
-      </c>
-      <c r="E25" s="74">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="73">
-        <v>25</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>252</v>
-      </c>
-      <c r="C26" s="73">
-        <v>1800</v>
-      </c>
-      <c r="D26" s="73">
-        <v>3</v>
-      </c>
-      <c r="E26" s="74">
-        <v>475000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="73">
-        <v>26</v>
-      </c>
-      <c r="B27" s="73" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="73">
-        <v>2300</v>
-      </c>
-      <c r="D27" s="73">
-        <v>4</v>
-      </c>
-      <c r="E27" s="74">
-        <v>650000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="73">
-        <v>27</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" s="73">
-        <v>1500</v>
-      </c>
-      <c r="D28" s="73">
-        <v>2</v>
-      </c>
-      <c r="E28" s="74">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="73">
-        <v>28</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" s="73">
-        <v>2000</v>
-      </c>
-      <c r="D29" s="73">
-        <v>3</v>
-      </c>
-      <c r="E29" s="74">
-        <v>525000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="73">
-        <v>29</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" s="73">
-        <v>1900</v>
-      </c>
-      <c r="D30" s="73">
-        <v>3</v>
-      </c>
-      <c r="E30" s="74">
-        <v>475000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="73">
-        <v>30</v>
-      </c>
-      <c r="B31" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="C31" s="73">
-        <v>1600</v>
-      </c>
-      <c r="D31" s="73">
-        <v>2</v>
-      </c>
-      <c r="E31" s="74">
-        <v>425000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBB7BC9-4AF7-4B53-8885-AA755EF0C0A6}">
-  <dimension ref="D7:N20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="4" max="4" width="4.15625" customWidth="1"/>
-    <col min="5" max="5" width="5.5234375" customWidth="1"/>
-    <col min="6" max="6" width="4.5234375" customWidth="1"/>
-    <col min="7" max="7" width="5.20703125" customWidth="1"/>
-    <col min="8" max="8" width="4.62890625" customWidth="1"/>
-    <col min="9" max="9" width="4.89453125" customWidth="1"/>
-    <col min="10" max="10" width="4.9453125" customWidth="1"/>
-    <col min="11" max="11" width="4.89453125" customWidth="1"/>
-    <col min="12" max="12" width="4.7890625" customWidth="1"/>
-    <col min="13" max="13" width="4.26171875" customWidth="1"/>
-    <col min="14" max="14" width="4.41796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-    </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-    </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-    </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-    </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-    </row>
-    <row r="12" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-    </row>
-    <row r="13" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-    </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" s="81"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="81"/>
-    </row>
-    <row r="15" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" s="81"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="81"/>
-    </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AC0FCE-4D1A-4C70-8E65-215778C55D56}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B4:D11"/>
+  <dimension ref="B4:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="9.62890625" customWidth="1"/>
-    <col min="4" max="4" width="19.3671875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="76" t="s">
+    <row r="6" spans="2:4">
+      <c r="B6" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="76"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="82"/>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>159</v>
       </c>
       <c r="C9" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>162</v>
       </c>
       <c r="C11" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="3">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="3">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -7958,13 +8913,14 @@
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD883F4-B607-4A50-81F4-22AA87F0E07D}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -7972,19 +8928,19 @@
   <dimension ref="B5:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.47265625" customWidth="1"/>
-    <col min="3" max="3" width="16.1015625" customWidth="1"/>
-    <col min="4" max="4" width="20.5234375" customWidth="1"/>
-    <col min="5" max="5" width="12.734375" customWidth="1"/>
-    <col min="7" max="7" width="22.3671875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -7992,8 +8948,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="7" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1">
       <c r="B7" s="20" t="s">
         <v>92</v>
       </c>
@@ -8006,7 +8962,7 @@
       <c r="F7" s="25"/>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:8">
       <c r="B8" s="20" t="s">
         <v>93</v>
       </c>
@@ -8014,7 +8970,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:8" ht="15.75" thickBot="1">
       <c r="B9" s="20" t="s">
         <v>94</v>
       </c>
@@ -8022,7 +8978,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:8">
       <c r="B10" s="20" t="s">
         <v>95</v>
       </c>
@@ -8033,7 +8989,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:8">
       <c r="B11" s="20" t="s">
         <v>96</v>
       </c>
@@ -8042,7 +8998,7 @@
       </c>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:8" ht="15.75" thickBot="1">
       <c r="B12" s="20" t="s">
         <v>97</v>
       </c>
@@ -8051,7 +9007,7 @@
       </c>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:8">
       <c r="B13" s="20" t="s">
         <v>98</v>
       </c>
@@ -8059,7 +9015,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:8">
       <c r="B14" s="20" t="s">
         <v>99</v>
       </c>
@@ -8067,7 +9023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:8">
       <c r="B15" s="20" t="s">
         <v>100</v>
       </c>
@@ -8085,7 +9041,7 @@
       </c>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:8">
       <c r="B16" s="20" t="s">
         <v>101</v>
       </c>
@@ -8101,7 +9057,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:8">
       <c r="B17" s="20" t="s">
         <v>102</v>
       </c>
@@ -8115,7 +9071,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:8">
       <c r="B18" s="20" t="s">
         <v>103</v>
       </c>
@@ -8135,7 +9091,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:8">
       <c r="B19" s="20" t="s">
         <v>104</v>
       </c>
@@ -8153,7 +9109,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:8">
       <c r="B20" s="20" t="s">
         <v>105</v>
       </c>
@@ -8161,7 +9117,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:8">
       <c r="B21" s="20" t="s">
         <v>106</v>
       </c>
@@ -8169,7 +9125,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:8">
       <c r="B22" s="20" t="s">
         <v>107</v>
       </c>
@@ -8177,7 +9133,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:8">
       <c r="B23" s="20" t="s">
         <v>108</v>
       </c>
@@ -8185,49 +9141,49 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:8">
       <c r="B24" s="20"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:8">
       <c r="B25" s="20"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:8">
       <c r="B26" s="20"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:8">
       <c r="B27" s="20"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:8">
       <c r="B28" s="20"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:8">
       <c r="B29" s="20"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:8">
       <c r="B30" s="20"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:8">
       <c r="B31" s="20"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:8">
       <c r="B32" s="20"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:7">
       <c r="B33" s="20"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:7">
       <c r="B34" s="20"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7">
       <c r="B35" s="20"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7">
       <c r="B36" s="20"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7">
       <c r="B37" s="20"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7">
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -8241,62 +9197,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2B6BC8-B206-4D06-8A23-82B2EF1AB948}">
   <dimension ref="B4:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.1015625" customWidth="1"/>
-    <col min="3" max="3" width="32.15625" customWidth="1"/>
-    <col min="5" max="5" width="13.1015625" customWidth="1"/>
-    <col min="6" max="6" width="21.89453125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" ht="23.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="57" t="s">
+    <row r="4" spans="2:11" ht="23.25">
+      <c r="B4" s="54" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="23.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="57" t="s">
+    <row r="5" spans="2:11" ht="23.25">
+      <c r="B5" s="54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="23.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="57"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="58" t="s">
+    <row r="6" spans="2:11" ht="23.25">
+      <c r="B6" s="54"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="57" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="61" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="62" t="b">
+      <c r="C8" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63" t="str">
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="str">
         <f>IF(C8,":)",":(")</f>
         <v>:)</v>
       </c>
@@ -8304,20 +9260,20 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="61" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="59">
         <v>15</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="59">
         <v>20</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="59">
         <v>18</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="60">
         <f>AVERAGE(Table9[[#This Row],[a]:[v]])</f>
         <v>17.666666666666668</v>
       </c>
@@ -8331,20 +9287,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="61" t="s">
+    <row r="10" spans="2:11">
+      <c r="B10" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="63" t="str">
+      <c r="F10" s="60" t="str">
         <f>CONCATENATE(Table9[[#This Row],[a]],Table9[[#This Row],[b]],Table9[[#This Row],[v]])</f>
         <v>text1Text2Text3</v>
       </c>
@@ -8358,18 +9314,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="61" t="s">
+    <row r="11" spans="2:11">
+      <c r="B11" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="59">
         <v>15</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="59">
         <v>23</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63">
+      <c r="E11" s="59"/>
+      <c r="F11" s="60">
         <f>SUM(Table9[[#This Row],[a]:[b]])</f>
         <v>38</v>
       </c>
@@ -8383,16 +9339,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="64" t="s">
+    <row r="12" spans="2:11">
+      <c r="B12" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="62">
         <v>17</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66" t="str">
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63" t="str">
         <f>_xlfn.XLOOKUP(Table9[[#This Row],[a]],Table10[b],Table10[a])</f>
         <v>user3</v>
       </c>
@@ -8406,58 +9362,58 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="61" t="s">
+    <row r="13" spans="2:11">
+      <c r="B13" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="59">
         <v>12</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="59">
         <v>23</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63">
+      <c r="E13" s="59"/>
+      <c r="F13" s="60">
         <f>COUNT(Table9[[#This Row],[a]:[b]])</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="61" t="s">
+    <row r="14" spans="2:11">
+      <c r="B14" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60">
         <f>COUNTA(Table10[])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="61" t="s">
+    <row r="15" spans="2:11">
+      <c r="B15" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62" t="str">
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59" t="str">
         <f>TRIM(Table9[[#This Row],[a]])</f>
         <v>sohrab khanbadr 18</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="67" t="s">
+    <row r="16" spans="2:11">
+      <c r="B16" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69">
+      <c r="E16" s="65"/>
+      <c r="F16" s="66">
         <f>COUNTIF(Table10[],Table9[[#This Row],[b]])</f>
         <v>0</v>
       </c>
@@ -8471,7 +9427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF999D8E-0684-42AA-9790-96BCAC1B746A}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -8482,9 +9438,9 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="3:17" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:17" ht="23.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
@@ -8501,7 +9457,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="3:17" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:17" ht="23.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="5"/>
@@ -8512,7 +9468,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="3:17" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:17" ht="23.25">
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
@@ -8531,16 +9487,16 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53" t="s">
+      <c r="L6" s="50"/>
+      <c r="M6" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="3:17" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+    </row>
+    <row r="7" spans="3:17" ht="23.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="6"/>
@@ -8550,23 +9506,23 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="55">
+      <c r="L7" s="52">
         <v>10</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53" t="s">
+      <c r="M7" s="50"/>
+      <c r="N7" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="50">
         <f>LOG10(L7)</f>
         <v>1</v>
       </c>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53" t="s">
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:17" ht="23.25">
       <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
@@ -8585,19 +9541,19 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54">
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51">
         <f>TIME(L10,M10,N10)</f>
         <v>5.2222222222222225E-2</v>
       </c>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53" t="s">
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="3:17" ht="23.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -8607,20 +9563,20 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="56" t="s">
+      <c r="L9" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="M9" s="56" t="s">
+      <c r="M9" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="N9" s="56" t="s">
+      <c r="N9" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-    </row>
-    <row r="10" spans="3:17" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+    </row>
+    <row r="10" spans="3:17" ht="23.25">
       <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
@@ -8639,20 +9595,20 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="56">
+      <c r="L10" s="53">
         <v>1</v>
       </c>
-      <c r="M10" s="56">
+      <c r="M10" s="53">
         <v>15</v>
       </c>
-      <c r="N10" s="56">
+      <c r="N10" s="53">
         <v>12</v>
       </c>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-    </row>
-    <row r="11" spans="3:17" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="3:17" ht="23.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -8663,7 +9619,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="3:17" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="3:17" ht="23.25">
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
@@ -8686,66 +9642,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="M13" s="43" t="s">
+    <row r="13" spans="3:17">
+      <c r="M13" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="43" t="s">
+      <c r="N13" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="43" t="s">
+      <c r="O13" s="42" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="M14" s="43">
+    <row r="14" spans="3:17">
+      <c r="M14" s="42">
         <v>0</v>
       </c>
-      <c r="N14" s="43">
+      <c r="N14" s="42">
         <v>0</v>
       </c>
-      <c r="O14" s="43" t="b">
+      <c r="O14" s="42" t="b">
         <f>_xlfn.XOR(M14,N14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="M15" s="43">
+    <row r="15" spans="3:17">
+      <c r="M15" s="42">
         <v>0</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="42">
         <v>1</v>
       </c>
-      <c r="O15" s="43" t="b">
+      <c r="O15" s="42" t="b">
         <f t="shared" ref="O15:O17" si="0">_xlfn.XOR(M15,N15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="M16" s="43">
+    <row r="16" spans="3:17">
+      <c r="M16" s="42">
         <v>1</v>
       </c>
-      <c r="N16" s="43">
+      <c r="N16" s="42">
         <v>0</v>
       </c>
-      <c r="O16" s="43" t="b">
+      <c r="O16" s="42" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="M17" s="43">
+    <row r="17" spans="3:15">
+      <c r="M17" s="42">
         <v>1</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="42">
         <v>1</v>
       </c>
-      <c r="O17" s="43" t="b">
+      <c r="O17" s="42" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:15">
       <c r="C18" t="s">
         <v>193</v>
       </c>
@@ -8766,7 +9722,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:15">
       <c r="C20" t="s">
         <v>195</v>
       </c>
@@ -8794,7 +9750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908B4679-37A8-4A09-B619-8AD86A7C423F}">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
@@ -8805,26 +9761,26 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="8.83984375" style="3"/>
-    <col min="4" max="4" width="13.62890625" style="3" customWidth="1"/>
+    <col min="1" max="3" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="13.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="9" width="8.83984375" style="3"/>
-    <col min="10" max="10" width="9.62890625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.47265625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.3671875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.83984375" style="3"/>
+    <col min="6" max="9" width="8.85546875" style="3"/>
+    <col min="10" max="10" width="9.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:15" ht="23.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="3:15" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:15" ht="23.25">
       <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
@@ -8835,7 +9791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:15" ht="23.25">
       <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
@@ -8846,7 +9802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:15" ht="23.25">
       <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
@@ -8857,7 +9813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:15" ht="23.25">
       <c r="C7" s="2" t="s">
         <v>54</v>
       </c>
@@ -8868,7 +9824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:15" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="3:15" ht="18.75">
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
         <v>67</v>
@@ -8885,18 +9841,18 @@
       <c r="H14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="77" t="s">
+      <c r="J14" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78" t="s">
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+    </row>
+    <row r="15" spans="3:15">
       <c r="C15" s="7" t="s">
         <v>57</v>
       </c>
@@ -8918,7 +9874,7 @@
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="3:15">
       <c r="C16" s="7" t="s">
         <v>58</v>
       </c>
@@ -8958,7 +9914,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:15">
       <c r="C17" s="7" t="s">
         <v>59</v>
       </c>
@@ -9000,7 +9956,7 @@
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:15">
       <c r="C18" s="7" t="s">
         <v>60</v>
       </c>
@@ -9042,7 +9998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:15">
       <c r="C19" s="7" t="s">
         <v>61</v>
       </c>
@@ -9084,7 +10040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:15">
       <c r="C20" s="7" t="s">
         <v>62</v>
       </c>
@@ -9126,7 +10082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:15">
       <c r="C21" s="7" t="s">
         <v>63</v>
       </c>
@@ -9168,7 +10124,7 @@
         <v>9.6666666666666661</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:15">
       <c r="C22" s="7" t="s">
         <v>64</v>
       </c>
@@ -9210,7 +10166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:15">
       <c r="C23" s="7" t="s">
         <v>65</v>
       </c>
@@ -9252,7 +10208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:15">
       <c r="C24" s="7" t="s">
         <v>66</v>
       </c>
@@ -9294,7 +10250,7 @@
         <v>13.666666666666666</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:15">
       <c r="J25" s="31" t="s">
         <v>65</v>
       </c>
@@ -9316,7 +10272,7 @@
         <v>10.333333333333334</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:15">
       <c r="J26" s="36" t="s">
         <v>66</v>
       </c>
@@ -9345,12 +10301,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E3:E7">
-    <cfRule type="cellIs" dxfId="95" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>13.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E7">
-    <cfRule type="cellIs" dxfId="94" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9362,7 +10318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3B5372-B725-4FA7-994F-7716996DAAB6}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -9373,17 +10329,17 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.05078125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.26171875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.62890625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.7890625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.83984375" style="3"/>
+    <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="26.25">
       <c r="A1" s="39" t="s">
         <v>137</v>
       </c>
@@ -9400,7 +10356,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" ht="26.25">
       <c r="A2" s="39">
         <v>2020</v>
       </c>
@@ -9417,7 +10373,7 @@
         <v>939.39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="26.25">
       <c r="A3" s="39">
         <v>2020</v>
       </c>
@@ -9434,7 +10390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="26.25">
       <c r="A4" s="39">
         <v>2020</v>
       </c>
@@ -9451,7 +10407,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="26.25">
       <c r="A5" s="39">
         <v>2020</v>
       </c>
@@ -9468,7 +10424,7 @@
         <v>3705.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" ht="26.25">
       <c r="A6" s="39">
         <v>2021</v>
       </c>
@@ -9485,7 +10441,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="26.25">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -9497,7 +10453,7 @@
         <v>5450.8899999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="26.25">
       <c r="A12" s="39" t="s">
         <v>137</v>
       </c>
@@ -9514,7 +10470,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" ht="26.25">
       <c r="A13" s="39">
         <v>2020</v>
       </c>
@@ -9531,7 +10487,7 @@
         <v>939.39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" ht="26.25">
       <c r="A14" s="39">
         <v>2020</v>
       </c>
@@ -9548,7 +10504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" ht="26.25">
       <c r="A15" s="39">
         <v>2020</v>
       </c>
@@ -9565,7 +10521,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" ht="26.25">
       <c r="A16" s="39">
         <v>2020</v>
       </c>
@@ -9582,7 +10538,7 @@
         <v>3705.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" ht="26.25">
       <c r="A17" s="39">
         <v>2021</v>
       </c>
@@ -9599,7 +10555,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="26.25">
       <c r="A18" t="s">
         <v>145</v>
       </c>
@@ -9611,132 +10567,132 @@
         <v>5450.8899999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:5" ht="26.25">
+      <c r="A22" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-    </row>
-    <row r="23" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="48" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+    </row>
+    <row r="23" spans="1:5" ht="26.25">
+      <c r="A23" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="47" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="49">
+    <row r="24" spans="1:5" ht="26.25">
+      <c r="A24" s="47">
         <v>2020</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="88">
         <v>1189.3899999999999</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="88">
         <v>3705.5</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="88">
         <v>100</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="88">
         <v>4994.8899999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="49">
+    <row r="25" spans="1:5" ht="26.25">
+      <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25" s="88">
         <v>939.39</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50">
+      <c r="C25" s="88"/>
+      <c r="D25" s="88">
         <v>100</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="88">
         <v>1039.3899999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="49">
+    <row r="26" spans="1:5" ht="26.25">
+      <c r="A26" s="47">
         <v>2</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="88">
         <v>250</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50">
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="49">
+    <row r="27" spans="1:5" ht="26.25">
+      <c r="A27" s="47">
         <v>4</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50">
+      <c r="B27" s="88"/>
+      <c r="C27" s="88">
         <v>3705.5</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50">
+      <c r="D27" s="88"/>
+      <c r="E27" s="88">
         <v>3705.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="49">
+    <row r="28" spans="1:5" ht="26.25">
+      <c r="A28" s="47">
         <v>2021</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50">
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88">
         <v>456</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="88">
         <v>456</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="49">
+    <row r="29" spans="1:5" ht="26.25">
+      <c r="A29" s="47">
         <v>4</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50">
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88">
         <v>456</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="88">
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="25.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="49" t="s">
+    <row r="30" spans="1:5" ht="26.25">
+      <c r="A30" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B30" s="88">
         <v>1189.3899999999999</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="88">
         <v>3705.5</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="88">
         <v>556</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="88">
         <v>5450.8899999999994</v>
       </c>
     </row>
@@ -9748,618 +10704,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53E181B-4D6C-4D78-975E-AD00CC2A0AB6}">
-  <dimension ref="B2:M27"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="5" max="5" width="13.89453125" customWidth="1"/>
-    <col min="6" max="6" width="16.41796875" customWidth="1"/>
-    <col min="8" max="8" width="12.47265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="2.68359375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.20703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="B2" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9">
-        <v>17</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11">
-        <v>18</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12">
-        <f>SUBTOTAL(103,Table6[ترم])</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H16" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="I16" t="s">
-        <v>191</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H17" s="51">
-        <v>1</v>
-      </c>
-      <c r="I17" s="47">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H18" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="I18" s="47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H19" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" s="47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H20" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="I20" s="47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H21" s="51">
-        <v>2</v>
-      </c>
-      <c r="I21" s="47">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H22" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="I22" s="47">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H23" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="I23" s="47">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H24" s="51">
-        <v>3</v>
-      </c>
-      <c r="I24" s="47">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H25" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="I25" s="47">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H26" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="I26" s="47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H27" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="I27" s="47">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B125A6C-07A9-4059-BF4E-65D7246C5927}">
-  <dimension ref="A3:K21"/>
-  <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="12.05078125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.62890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.20703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.05078125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.62890625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.20703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="45">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="47">
-        <v>1189.3899999999999</v>
-      </c>
-      <c r="C5" s="47">
-        <v>3705.5</v>
-      </c>
-      <c r="D5" s="47">
-        <v>100</v>
-      </c>
-      <c r="E5" s="47">
-        <v>4994.8899999999994</v>
-      </c>
-      <c r="G5" s="45">
-        <v>2020</v>
-      </c>
-      <c r="H5" s="47">
-        <v>2</v>
-      </c>
-      <c r="I5" s="47">
-        <v>1</v>
-      </c>
-      <c r="J5" s="47">
-        <v>1</v>
-      </c>
-      <c r="K5" s="47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="46">
-        <v>1</v>
-      </c>
-      <c r="B6" s="47">
-        <v>939.39</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47">
-        <v>100</v>
-      </c>
-      <c r="E6" s="47">
-        <v>1039.3899999999999</v>
-      </c>
-      <c r="G6" s="46">
-        <v>1</v>
-      </c>
-      <c r="H6" s="47">
-        <v>1</v>
-      </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47">
-        <v>1</v>
-      </c>
-      <c r="K6" s="47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="46">
-        <v>2</v>
-      </c>
-      <c r="B7" s="47">
-        <v>250</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47">
-        <v>250</v>
-      </c>
-      <c r="G7" s="46">
-        <v>2</v>
-      </c>
-      <c r="H7" s="47">
-        <v>1</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="46">
-        <v>4</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47">
-        <v>3705.5</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47">
-        <v>3705.5</v>
-      </c>
-      <c r="G8" s="46">
-        <v>4</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47">
-        <v>1</v>
-      </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="45">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47">
-        <v>456</v>
-      </c>
-      <c r="E9" s="47">
-        <v>456</v>
-      </c>
-      <c r="G9" s="45">
-        <v>2021</v>
-      </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47">
-        <v>1</v>
-      </c>
-      <c r="K9" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="46">
-        <v>4</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47">
-        <v>456</v>
-      </c>
-      <c r="E10" s="47">
-        <v>456</v>
-      </c>
-      <c r="G10" s="46">
-        <v>4</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47">
-        <v>1</v>
-      </c>
-      <c r="K10" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="47">
-        <v>1189.3899999999999</v>
-      </c>
-      <c r="C11" s="47">
-        <v>3705.5</v>
-      </c>
-      <c r="D11" s="47">
-        <v>556</v>
-      </c>
-      <c r="E11" s="47">
-        <v>5450.8899999999994</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" s="47">
-        <v>2</v>
-      </c>
-      <c r="I11" s="47">
-        <v>1</v>
-      </c>
-      <c r="J11" s="47">
-        <v>2</v>
-      </c>
-      <c r="K11" s="47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="80" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="G16" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="G17" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17">
-        <v>2020</v>
-      </c>
-      <c r="I17">
-        <v>2021</v>
-      </c>
-      <c r="J17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="G18" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="70">
-        <v>0.2381213600299506</v>
-      </c>
-      <c r="I18" s="70">
-        <v>0</v>
-      </c>
-      <c r="J18" s="70">
-        <v>0.21820106441333434</v>
-      </c>
-    </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="G19" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="72">
-        <v>0.74185817905899842</v>
-      </c>
-      <c r="I19" s="72">
-        <v>0</v>
-      </c>
-      <c r="J19" s="72">
-        <v>0.67979724411976772</v>
-      </c>
-    </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="G20" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="72">
-        <v>2.0020460911051096E-2</v>
-      </c>
-      <c r="I20" s="72">
-        <v>1</v>
-      </c>
-      <c r="J20" s="72">
-        <v>0.10200169146689808</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="G21" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="70">
-        <v>1</v>
-      </c>
-      <c r="I21" s="70">
-        <v>1</v>
-      </c>
-      <c r="J21" s="70">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B16:D16"/>
-  </mergeCells>
-  <conditionalFormatting pivot="1" sqref="H18:H20">
-    <cfRule type="top10" dxfId="10" priority="2" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="I18:I20">
-    <cfRule type="top10" dxfId="9" priority="1" rank="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CW_MSExcel/Book1.xlsx
+++ b/CW_MSExcel/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sepand\Documents\GitHub\computerworkshop\CW_MSExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778399F2-CE42-4CFA-8795-44C0994A8F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC18D8F-4EEB-4781-ADE4-1BF16F941CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{52906A5A-8D9E-4596-AD27-114F734658DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{52906A5A-8D9E-4596-AD27-114F734658DF}"/>
   </bookViews>
   <sheets>
     <sheet name="statistics" sheetId="13" r:id="rId1"/>
@@ -29,8 +29,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId14"/>
-    <pivotCache cacheId="12" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="1" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="284">
   <si>
     <t>Days of the week</t>
   </si>
@@ -962,6 +962,27 @@
   </si>
   <si>
     <t>https://howlongagogo.com/date/2022/october/3</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/excel/excel_tables.php</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/en-us/office/transpose-function-ed039415-ed8a-4a81-93e9-4b6dfac76027</t>
+  </si>
+  <si>
+    <t>Transpose</t>
+  </si>
+  <si>
+    <t>w3schools</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@Excellearn_ir</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/Su2nWZNVlQ0?si=hrnhEWoDHAT6Ns81</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -974,7 +995,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$-160429]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,6 +1072,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1405,10 +1434,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1572,6 +1602,19 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1590,25 +1633,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="127">
@@ -1651,36 +1679,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2989,6 +2987,36 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -5378,7 +5406,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3982EF9F-6D16-4023-A0B8-CC64C44D943F}" name="PivotTable8" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3982EF9F-6D16-4023-A0B8-CC64C44D943F}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A22:E30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -5455,35 +5483,35 @@
     <dataField name="Sum of Sales" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="48">
-    <format dxfId="94">
+    <format dxfId="84">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="83">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="82">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="81">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="80">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="79">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5493,7 +5521,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5505,45 +5533,45 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="72">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="70">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="69">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="68">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="67">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5553,7 +5581,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5565,45 +5593,45 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="60">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="59">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="58">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="57">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="56">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="55">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5613,7 +5641,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5625,45 +5653,45 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="48">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="46">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="45">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="44">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="43">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5673,7 +5701,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5685,14 +5713,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5709,7 +5737,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A26A5D83-CCB3-4AFD-98F4-3C970BC8562F}" name="PivotTable9" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A26A5D83-CCB3-4AFD-98F4-3C970BC8562F}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="H16:I27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -5805,7 +5833,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1F755B-1B7F-4CF5-9239-E9C889677AAA}" name="PivotTable13" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F1F755B-1B7F-4CF5-9239-E9C889677AAA}" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G16:J21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -5862,7 +5890,7 @@
     <dataField name="Sum of Sales" fld="4" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="22">
+    <format dxfId="12">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -5871,7 +5899,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="11">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -5882,7 +5910,7 @@
     </format>
   </formats>
   <conditionalFormats count="2">
-    <conditionalFormat type="all" priority="2">
+    <conditionalFormat type="all" priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -5890,7 +5918,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="1"/>
             </reference>
             <reference field="3" count="3">
               <x v="0"/>
@@ -5901,7 +5929,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat type="all" priority="1">
+    <conditionalFormat type="all" priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -5909,7 +5937,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="1"/>
+              <x v="0"/>
             </reference>
             <reference field="3" count="3">
               <x v="0"/>
@@ -5934,7 +5962,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98AEBB49-E6C1-4670-A365-297AD9BB7088}" name="PivotTable12" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98AEBB49-E6C1-4670-A365-297AD9BB7088}" name="PivotTable12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G3:K11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -6023,7 +6051,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04564482-8FEE-43C8-99A1-DB1D881CF4FB}" name="PivotTable7" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04564482-8FEE-43C8-99A1-DB1D881CF4FB}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -6112,6 +6140,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9F9F8A90-17AA-43BD-83B4-A1CB25B8DD28}" name="Table8" displayName="Table8" ref="A6:B10" totalsRowShown="0">
+  <autoFilter ref="A6:B10" xr:uid="{9F9F8A90-17AA-43BD-83B4-A1CB25B8DD28}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1C758F8F-F201-4931-9D55-50E1439FD8FD}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{975AF591-EA4A-4C56-90DE-71BAC67AE496}" name="Link"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{34DD3823-CC27-4330-BE69-73A15AA13269}" name="Table6" displayName="Table6" ref="D4:H12" totalsRowCount="1">
+  <autoFilter ref="D4:H11" xr:uid="{34DD3823-CC27-4330-BE69-73A15AA13269}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AFE29980-CE67-49DF-A09D-DE0DB4613AD3}" name="نام" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{F1002D57-27F0-4FF5-BE98-DB215ED9B23B}" name="نام خانوادگی"/>
+    <tableColumn id="3" xr3:uid="{6C0353F1-4C6A-4185-9C5B-CDCC6FBF9551}" name="شماره دانشجویی"/>
+    <tableColumn id="4" xr3:uid="{8CD8BD1D-0BA6-4A66-B58A-69F4F1E679B9}" name="نمره"/>
+    <tableColumn id="5" xr3:uid="{080F813C-ABBE-42FB-AA75-D45DF154CDEB}" name="ترم" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1E230579-6F39-4559-BE7D-4FA00F563826}" name="Table11" displayName="Table11" ref="A1:E33" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:E33" xr:uid="{1E230579-6F39-4559-BE7D-4FA00F563826}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9AEA99DC-1593-4BD4-BDBE-7740C7FEF51A}" name="Row" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0B38D7DB-2142-44FF-902A-66F532D56507}" name="Address" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C1BBE6E6-280D-4581-88B4-D8BFB412767B}" name="Square Footage" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{751E334D-454E-48C9-B1E2-14189617C144}" name="Bedrooms" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{D867D560-5FC8-48E5-894E-1C623A60B756}" name="Price" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{30B51988-376D-4F1E-B726-71F29A17B84A}" name="Table4" displayName="Table4" ref="B8:D11" totalsRowShown="0">
   <autoFilter ref="B8:D11" xr:uid="{30B51988-376D-4F1E-B726-71F29A17B84A}"/>
   <tableColumns count="3">
@@ -6123,66 +6190,52 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1E230579-6F39-4559-BE7D-4FA00F563826}" name="Table11" displayName="Table11" ref="A1:E33" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:E33" xr:uid="{1E230579-6F39-4559-BE7D-4FA00F563826}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9AEA99DC-1593-4BD4-BDBE-7740C7FEF51A}" name="Row" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{0B38D7DB-2142-44FF-902A-66F532D56507}" name="Address" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{C1BBE6E6-280D-4581-88B4-D8BFB412767B}" name="Square Footage" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{751E334D-454E-48C9-B1E2-14189617C144}" name="Bedrooms" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{D867D560-5FC8-48E5-894E-1C623A60B756}" name="Price" dataDxfId="14"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{327FDB3F-5705-4D76-B059-AD9364BCBD36}" name="newTable" displayName="newTable" ref="B17:E19" headerRowDxfId="13" dataDxfId="12">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{327FDB3F-5705-4D76-B059-AD9364BCBD36}" name="newTable" displayName="newTable" ref="B17:E19" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="B17:E19" xr:uid="{327FDB3F-5705-4D76-B059-AD9364BCBD36}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2AFD9C2-834D-450B-AF64-5B1923BBA466}" name="name" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{F7130A87-3D3D-48AB-9885-8127F0A12417}" name="fname" dataDxfId="10" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B647A260-517E-4682-A183-3587777F5F91}" name="age" dataDxfId="9" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{CBF2BEE5-4AE7-4BE5-AD71-0FB3B326B371}" name="score" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{D2AFD9C2-834D-450B-AF64-5B1923BBA466}" name="name" totalsRowLabel="Total" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{F7130A87-3D3D-48AB-9885-8127F0A12417}" name="fname" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{B647A260-517E-4682-A183-3587777F5F91}" name="age" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{CBF2BEE5-4AE7-4BE5-AD71-0FB3B326B371}" name="score" dataDxfId="117" totalsRowDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7006CF23-6D7C-48B3-8B45-D6064C45B72E}" name="Table9" displayName="Table9" ref="B7:F16" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122" totalsRowBorderDxfId="121">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7006CF23-6D7C-48B3-8B45-D6064C45B72E}" name="Table9" displayName="Table9" ref="B7:F16" totalsRowShown="0" headerRowDxfId="115" dataDxfId="113" headerRowBorderDxfId="114" tableBorderDxfId="112" totalsRowBorderDxfId="111">
   <autoFilter ref="B7:F16" xr:uid="{7006CF23-6D7C-48B3-8B45-D6064C45B72E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3CFD2082-4CF1-446B-8BE2-F082C9C80C6E}" name="Column1" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{9886A329-B735-47F9-955E-5ECA9DC343BB}" name="a" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{68EF6A25-17F5-43C9-B799-1C836D3FBD9A}" name="b" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{1682783A-113E-41DC-9945-B8AD72560258}" name="v" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{98BFC7CF-F5D2-41A1-BA38-29D7EBE768D4}" name="d" dataDxfId="116"/>
+    <tableColumn id="1" xr3:uid="{3CFD2082-4CF1-446B-8BE2-F082C9C80C6E}" name="Column1" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{9886A329-B735-47F9-955E-5ECA9DC343BB}" name="a" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{68EF6A25-17F5-43C9-B799-1C836D3FBD9A}" name="b" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{1682783A-113E-41DC-9945-B8AD72560258}" name="v" dataDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{98BFC7CF-F5D2-41A1-BA38-29D7EBE768D4}" name="d" dataDxfId="106"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{55712DDB-F083-4631-B5B4-DEAE0F2683C3}" name="Table10" displayName="Table10" ref="I9:K12" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{55712DDB-F083-4631-B5B4-DEAE0F2683C3}" name="Table10" displayName="Table10" ref="I9:K12" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
   <autoFilter ref="I9:K12" xr:uid="{55712DDB-F083-4631-B5B4-DEAE0F2683C3}"/>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{66D84B39-2B84-418E-9FFD-8954963F30FA}" name="index" dataDxfId="113"/>
-    <tableColumn id="1" xr3:uid="{F62D2BE7-F426-4DC0-B0D7-AF65116B2E07}" name="a" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{0BA2E46D-DB4A-4180-B99A-F228C2F7D4AE}" name="b" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{66D84B39-2B84-418E-9FFD-8954963F30FA}" name="index" dataDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{F62D2BE7-F426-4DC0-B0D7-AF65116B2E07}" name="a" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{0BA2E46D-DB4A-4180-B99A-F228C2F7D4AE}" name="b" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{872C1A82-C292-46B2-8D49-6BC44ADD500D}" name="Table7" displayName="Table7" ref="M13:O17" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{872C1A82-C292-46B2-8D49-6BC44ADD500D}" name="Table7" displayName="Table7" ref="M13:O17" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="M13:O17" xr:uid="{872C1A82-C292-46B2-8D49-6BC44ADD500D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0C8D3807-16B0-436E-9F79-4183FE99E41F}" name="a" dataDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{4404D5D5-27E0-4563-BBBE-53783522352C}" name="b" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{1BD00687-172E-4E72-AE13-14809C446321}" name="c" dataDxfId="106">
+    <tableColumn id="1" xr3:uid="{0C8D3807-16B0-436E-9F79-4183FE99E41F}" name="a" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{4404D5D5-27E0-4563-BBBE-53783522352C}" name="b" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{1BD00687-172E-4E72-AE13-14809C446321}" name="c" dataDxfId="96">
       <calculatedColumnFormula>_xlfn.XOR(M14,N14)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6190,18 +6243,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5EE6957-5135-400A-B35C-030E2C636C37}" name="ScoreTable" displayName="ScoreTable" ref="J16:O26" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5EE6957-5135-400A-B35C-030E2C636C37}" name="ScoreTable" displayName="ScoreTable" ref="J16:O26" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92" totalsRowBorderDxfId="91">
   <autoFilter ref="J16:O26" xr:uid="{F5EE6957-5135-400A-B35C-030E2C636C37}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E532E91A-E33A-4E81-9A48-EEF5AB11EC7B}" name="Column1" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{0D62E2C8-A0B7-4775-BFBE-6B3F1E31EF79}" name="Chemistry" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{67EB20C9-5433-4C81-8F12-94DE5A5EE97B}" name="Physics" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{D6E7A653-0297-4D9C-BD15-3337A4591C4B}" name="Math" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{842D87BC-D7C9-4CAE-BB22-3AFB411FF356}" name="Sum" dataDxfId="96">
+    <tableColumn id="1" xr3:uid="{E532E91A-E33A-4E81-9A48-EEF5AB11EC7B}" name="Column1" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{0D62E2C8-A0B7-4775-BFBE-6B3F1E31EF79}" name="Chemistry" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{67EB20C9-5433-4C81-8F12-94DE5A5EE97B}" name="Physics" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{D6E7A653-0297-4D9C-BD15-3337A4591C4B}" name="Math" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{842D87BC-D7C9-4CAE-BB22-3AFB411FF356}" name="Sum" dataDxfId="86">
       <calculatedColumnFormula>SUM(K17:M17)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F459A362-E942-43C2-B36C-99D1C4BEDF3A}" name="Avg" dataDxfId="95">
+    <tableColumn id="6" xr3:uid="{F459A362-E942-43C2-B36C-99D1C4BEDF3A}" name="Avg" dataDxfId="85">
       <calculatedColumnFormula>N17/3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6209,45 +6262,31 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2D3B7AB0-43E6-4CE4-ACC5-D8F0607C3699}" name="SalesTable" displayName="SalesTable" ref="A1:E7" totalsRowCount="1" headerRowDxfId="46" dataDxfId="45" totalsRowDxfId="44">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2D3B7AB0-43E6-4CE4-ACC5-D8F0607C3699}" name="SalesTable" displayName="SalesTable" ref="A1:E7" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35" totalsRowDxfId="34">
   <autoFilter ref="A1:E6" xr:uid="{2D3B7AB0-43E6-4CE4-ACC5-D8F0607C3699}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3482221E-1290-4B0B-A9A2-C2FAAB6914B0}" name="Year" totalsRowLabel="Total" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{3AFCCDF9-C0AD-4D58-A3BB-38000DE402A3}" name="Quarter" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{13C418C4-182D-4A44-89E8-D393BD04FC6D}" name="Month" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{F9A36E3C-6FBC-4AA8-8A66-DF0BB182EEAF}" name="Category" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{F00803E8-955E-4C7A-B52F-45A3A55F5DAB}" name="Sales" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7F973B04-96CC-4EAF-86BE-63711C15F685}" name="SalesTable6" displayName="SalesTable6" ref="A12:E18" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33" totalsRowDxfId="32">
-  <autoFilter ref="A12:E17" xr:uid="{7F973B04-96CC-4EAF-86BE-63711C15F685}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E7FF91FD-D9DB-4835-BFA9-67F5C0EF9FA0}" name="Year" totalsRowLabel="Total" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{163F7768-16EF-4686-B15A-5A0EF34203BD}" name="Quarter" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{419873EB-0182-4D8D-958A-2708E5880FD1}" name="Month" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{78A1DBA5-11D0-4FCD-BD11-0B68FE1048D6}" name="Category" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{367B2CB3-A90F-49F7-8D3D-E2A10E3E6D9E}" name="Sales" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{3482221E-1290-4B0B-A9A2-C2FAAB6914B0}" name="Year" totalsRowLabel="Total" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{3AFCCDF9-C0AD-4D58-A3BB-38000DE402A3}" name="Quarter" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{13C418C4-182D-4A44-89E8-D393BD04FC6D}" name="Month" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{F9A36E3C-6FBC-4AA8-8A66-DF0BB182EEAF}" name="Category" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{F00803E8-955E-4C7A-B52F-45A3A55F5DAB}" name="Sales" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{34DD3823-CC27-4330-BE69-73A15AA13269}" name="Table6" displayName="Table6" ref="D4:H12" totalsRowCount="1">
-  <autoFilter ref="D4:H11" xr:uid="{34DD3823-CC27-4330-BE69-73A15AA13269}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7F973B04-96CC-4EAF-86BE-63711C15F685}" name="SalesTable6" displayName="SalesTable6" ref="A12:E18" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
+  <autoFilter ref="A12:E17" xr:uid="{7F973B04-96CC-4EAF-86BE-63711C15F685}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AFE29980-CE67-49DF-A09D-DE0DB4613AD3}" name="نام" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{F1002D57-27F0-4FF5-BE98-DB215ED9B23B}" name="نام خانوادگی"/>
-    <tableColumn id="3" xr3:uid="{6C0353F1-4C6A-4185-9C5B-CDCC6FBF9551}" name="شماره دانشجویی"/>
-    <tableColumn id="4" xr3:uid="{8CD8BD1D-0BA6-4A66-B58A-69F4F1E679B9}" name="نمره"/>
-    <tableColumn id="5" xr3:uid="{080F813C-ABBE-42FB-AA75-D45DF154CDEB}" name="ترم" totalsRowFunction="count"/>
+    <tableColumn id="1" xr3:uid="{E7FF91FD-D9DB-4835-BFA9-67F5C0EF9FA0}" name="Year" totalsRowLabel="Total" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{163F7768-16EF-4686-B15A-5A0EF34203BD}" name="Quarter" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{419873EB-0182-4D8D-958A-2708E5880FD1}" name="Month" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{78A1DBA5-11D0-4FCD-BD11-0B68FE1048D6}" name="Category" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{367B2CB3-A90F-49F7-8D3D-E2A10E3E6D9E}" name="Sales" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6553,82 +6592,82 @@
   </sheetPr>
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="81.85546875" style="89" customWidth="1"/>
+    <col min="1" max="1" width="81.85546875" style="81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="83" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="83" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="84" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="83" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="83" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="83" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="85" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="84" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="84" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="83" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="82" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="81" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="81" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="81" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6656,13 +6695,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
     </row>
     <row r="4" spans="2:13">
       <c r="D4" t="s">
@@ -6803,7 +6842,7 @@
       <c r="H17" s="48">
         <v>1</v>
       </c>
-      <c r="I17" s="87">
+      <c r="I17">
         <v>60</v>
       </c>
     </row>
@@ -6811,7 +6850,7 @@
       <c r="H18" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="87">
+      <c r="I18">
         <v>20</v>
       </c>
     </row>
@@ -6819,7 +6858,7 @@
       <c r="H19" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="I19" s="87">
+      <c r="I19">
         <v>20</v>
       </c>
     </row>
@@ -6827,7 +6866,7 @@
       <c r="H20" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="I20" s="87">
+      <c r="I20">
         <v>20</v>
       </c>
     </row>
@@ -6835,7 +6874,7 @@
       <c r="H21" s="48">
         <v>2</v>
       </c>
-      <c r="I21" s="87">
+      <c r="I21">
         <v>33</v>
       </c>
     </row>
@@ -6843,7 +6882,7 @@
       <c r="H22" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="I22" s="87">
+      <c r="I22">
         <v>15</v>
       </c>
     </row>
@@ -6851,7 +6890,7 @@
       <c r="H23" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="I23" s="87">
+      <c r="I23">
         <v>18</v>
       </c>
     </row>
@@ -6859,7 +6898,7 @@
       <c r="H24" s="48">
         <v>3</v>
       </c>
-      <c r="I24" s="87">
+      <c r="I24">
         <v>37</v>
       </c>
     </row>
@@ -6867,7 +6906,7 @@
       <c r="H25" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="I25" s="87">
+      <c r="I25">
         <v>17</v>
       </c>
     </row>
@@ -6875,7 +6914,7 @@
       <c r="H26" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="I26" s="87">
+      <c r="I26">
         <v>20</v>
       </c>
     </row>
@@ -6883,7 +6922,7 @@
       <c r="H27" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="I27" s="87">
+      <c r="I27">
         <v>130</v>
       </c>
     </row>
@@ -6971,31 +7010,31 @@
       <c r="A5" s="44">
         <v>2020</v>
       </c>
-      <c r="B5" s="87">
+      <c r="B5">
         <v>1189.3899999999999</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5">
         <v>3705.5</v>
       </c>
-      <c r="D5" s="87">
+      <c r="D5">
         <v>100</v>
       </c>
-      <c r="E5" s="87">
+      <c r="E5">
         <v>4994.8899999999994</v>
       </c>
       <c r="G5" s="44">
         <v>2020</v>
       </c>
-      <c r="H5" s="87">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" s="87">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="87">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="87">
+      <c r="K5">
         <v>4</v>
       </c>
     </row>
@@ -7003,27 +7042,25 @@
       <c r="A6" s="45">
         <v>1</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6">
         <v>939.39</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87">
+      <c r="D6">
         <v>100</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6">
         <v>1039.3899999999999</v>
       </c>
       <c r="G6" s="45">
         <v>1</v>
       </c>
-      <c r="H6" s="87">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="87">
+      <c r="K6">
         <v>2</v>
       </c>
     </row>
@@ -7031,23 +7068,19 @@
       <c r="A7" s="45">
         <v>2</v>
       </c>
-      <c r="B7" s="87">
+      <c r="B7">
         <v>250</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87">
+      <c r="E7">
         <v>250</v>
       </c>
       <c r="G7" s="45">
         <v>2</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87">
+      <c r="K7">
         <v>1</v>
       </c>
     </row>
@@ -7055,23 +7088,19 @@
       <c r="A8" s="45">
         <v>4</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87">
+      <c r="C8">
         <v>3705.5</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87">
+      <c r="E8">
         <v>3705.5</v>
       </c>
       <c r="G8" s="45">
         <v>4</v>
       </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87">
+      <c r="K8">
         <v>1</v>
       </c>
     </row>
@@ -7079,23 +7108,19 @@
       <c r="A9" s="44">
         <v>2021</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87">
+      <c r="D9">
         <v>456</v>
       </c>
-      <c r="E9" s="87">
+      <c r="E9">
         <v>456</v>
       </c>
       <c r="G9" s="44">
         <v>2021</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87">
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="87">
+      <c r="K9">
         <v>1</v>
       </c>
     </row>
@@ -7103,23 +7128,19 @@
       <c r="A10" s="45">
         <v>4</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87">
+      <c r="D10">
         <v>456</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10">
         <v>456</v>
       </c>
       <c r="G10" s="45">
         <v>4</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="87">
+      <c r="K10">
         <v>1</v>
       </c>
     </row>
@@ -7127,40 +7148,40 @@
       <c r="A11" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="87">
+      <c r="B11">
         <v>1189.3899999999999</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11">
         <v>3705.5</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11">
         <v>556</v>
       </c>
-      <c r="E11" s="87">
+      <c r="E11">
         <v>5450.8899999999994</v>
       </c>
       <c r="G11" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" s="87">
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="87">
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="K11" s="87">
+      <c r="K11">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
       <c r="G16" s="43" t="s">
         <v>153</v>
       </c>
@@ -8029,13 +8050,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA315D65-5D88-4AA8-80D0-978656DAF760}">
-  <dimension ref="A1"/>
+  <dimension ref="A6:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="96.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="92" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="92" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{EA4DB3D8-742B-458A-8908-78A698832290}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{76F842A8-B923-4EC0-9AE8-B60CA1832102}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{F0387AB8-80A8-45DF-A269-DC64D5D32310}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{3690A6DB-743C-448B-B209-CA5BFCD13BB2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -8634,13 +8705,13 @@
     </row>
     <row r="32" spans="2:14">
       <c r="B32" s="18"/>
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
@@ -8817,10 +8888,10 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="87"/>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
@@ -9841,16 +9912,16 @@
       <c r="H14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="83" t="s">
+      <c r="J14" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="84" t="s">
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
     </row>
     <row r="15" spans="3:15">
       <c r="C15" s="7" t="s">
@@ -10599,16 +10670,16 @@
       <c r="A24" s="47">
         <v>2020</v>
       </c>
-      <c r="B24" s="88">
+      <c r="B24" s="47">
         <v>1189.3899999999999</v>
       </c>
-      <c r="C24" s="88">
+      <c r="C24" s="47">
         <v>3705.5</v>
       </c>
-      <c r="D24" s="88">
+      <c r="D24" s="47">
         <v>100</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="47">
         <v>4994.8899999999994</v>
       </c>
     </row>
@@ -10616,14 +10687,14 @@
       <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="88">
+      <c r="B25" s="47">
         <v>939.39</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88">
+      <c r="C25" s="47"/>
+      <c r="D25" s="47">
         <v>100</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="47">
         <v>1039.3899999999999</v>
       </c>
     </row>
@@ -10631,12 +10702,12 @@
       <c r="A26" s="47">
         <v>2</v>
       </c>
-      <c r="B26" s="88">
+      <c r="B26" s="47">
         <v>250</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88">
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47">
         <v>250</v>
       </c>
     </row>
@@ -10644,12 +10715,12 @@
       <c r="A27" s="47">
         <v>4</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88">
+      <c r="B27" s="47"/>
+      <c r="C27" s="47">
         <v>3705.5</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88">
+      <c r="D27" s="47"/>
+      <c r="E27" s="47">
         <v>3705.5</v>
       </c>
     </row>
@@ -10657,12 +10728,12 @@
       <c r="A28" s="47">
         <v>2021</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88">
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47">
         <v>456</v>
       </c>
-      <c r="E28" s="88">
+      <c r="E28" s="47">
         <v>456</v>
       </c>
     </row>
@@ -10670,12 +10741,12 @@
       <c r="A29" s="47">
         <v>4</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88">
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47">
         <v>456</v>
       </c>
-      <c r="E29" s="88">
+      <c r="E29" s="47">
         <v>456</v>
       </c>
     </row>
@@ -10683,16 +10754,16 @@
       <c r="A30" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="88">
+      <c r="B30" s="47">
         <v>1189.3899999999999</v>
       </c>
-      <c r="C30" s="88">
+      <c r="C30" s="47">
         <v>3705.5</v>
       </c>
-      <c r="D30" s="88">
+      <c r="D30" s="47">
         <v>556</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="47">
         <v>5450.8899999999994</v>
       </c>
     </row>
